--- a/data/Inclusion 2020-2025.xlsx
+++ b/data/Inclusion 2020-2025.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7a332a5fbc005db/PEER project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{9BEC8082-7A46-48BB-9067-30C4BABA5A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70DFD071-85C8-47AF-B0C1-1E2189122FD7}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{9BEC8082-7A46-48BB-9067-30C4BABA5A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC77B0AD-4AAF-4539-9337-1C543E9A888F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6991985F-A565-499A-8075-9137AABFC5E1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="125" xr2:uid="{6991985F-A565-499A-8075-9137AABFC5E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AY$215</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,8 +41,8 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>April, Daniel</author>
     <author>Sharma, Divya</author>
-    <author>April, Daniel</author>
     <author>Kaur, Akashdeep</author>
     <author>Klue, Jodi Francis</author>
     <author>tc={E4289A09-9897-4A0A-9D0E-8EDBFE7DE5CE}</author>
@@ -158,7 +161,22 @@
     <author>tc={C30C2C58-C47F-4136-A5B0-FFD1D2A7886C}</author>
   </authors>
   <commentList>
-    <comment ref="AP3" authorId="0" shapeId="0" xr:uid="{6F19CDE8-ADC0-43D3-B896-7BBF90E88353}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{1B344DD4-C86D-4747-8AD3-581EA5108B48}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>https://tbinternet.ohchr.org/_layouts/15/TreatyBodyExternal/Treaty.aspx
+https://treaties.un.org/pages/showDetails.aspx?objid=0800000280134150</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP3" authorId="1" shapeId="0" xr:uid="{6F19CDE8-ADC0-43D3-B896-7BBF90E88353}">
       <text>
         <r>
           <rPr>
@@ -174,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="1" shapeId="0" xr:uid="{1AC5DA38-30DD-4D2B-9CB0-077C4500F2AA}">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{1AC5DA38-30DD-4D2B-9CB0-077C4500F2AA}">
       <text>
         <r>
           <rPr>
@@ -229,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="1" shapeId="0" xr:uid="{149D4583-6D81-471E-B319-2043866C2BFD}">
+    <comment ref="Q8" authorId="0" shapeId="0" xr:uid="{149D4583-6D81-471E-B319-2043866C2BFD}">
       <text>
         <r>
           <rPr>
@@ -276,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="1" shapeId="0" xr:uid="{E4777D6B-85B2-4287-8AB4-DBA7EF750335}">
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{E4777D6B-85B2-4287-8AB4-DBA7EF750335}">
       <text>
         <r>
           <rPr>
@@ -300,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="1" shapeId="0" xr:uid="{7C4C2405-AC79-4E08-B060-838FA5E7E335}">
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{7C4C2405-AC79-4E08-B060-838FA5E7E335}">
       <text>
         <r>
           <rPr>
@@ -324,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="1" shapeId="0" xr:uid="{E8681F05-8992-4CFE-B4DA-CB467AAB86C7}">
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{E8681F05-8992-4CFE-B4DA-CB467AAB86C7}">
       <text>
         <r>
           <rPr>
@@ -348,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="1" shapeId="0" xr:uid="{2D6A93E5-8E73-4B54-89DD-CDF7757EA49E}">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{2D6A93E5-8E73-4B54-89DD-CDF7757EA49E}">
       <text>
         <r>
           <rPr>
@@ -403,7 +421,7 @@
     2008 Education System Framework Law, ‘special education is organised according to different models of integration in inclusive environments, either in general education schools, in classes, groups or in specialised units, or in special education establishments, according to the needs of the student, arising from the type and degree of their disability, in order to avoid situations of exclusion and promote their educational and social integration’. </t>
       </text>
     </comment>
-    <comment ref="Q34" authorId="1" shapeId="0" xr:uid="{D5B62CDC-6080-4082-91FF-E124658181D1}">
+    <comment ref="Q34" authorId="0" shapeId="0" xr:uid="{D5B62CDC-6080-4082-91FF-E124658181D1}">
       <text>
         <r>
           <rPr>
@@ -417,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R34" authorId="1" shapeId="0" xr:uid="{3DFA58D9-74AF-4B5D-B41C-1CB438ACA522}">
+    <comment ref="R34" authorId="0" shapeId="0" xr:uid="{3DFA58D9-74AF-4B5D-B41C-1CB438ACA522}">
       <text>
         <r>
           <rPr>
@@ -482,7 +500,7 @@
 disproportionnée."</t>
       </text>
     </comment>
-    <comment ref="Q41" authorId="1" shapeId="0" xr:uid="{3AE46F0B-06C7-498B-A252-7F2B7BA00C5F}">
+    <comment ref="Q41" authorId="0" shapeId="0" xr:uid="{3AE46F0B-06C7-498B-A252-7F2B7BA00C5F}">
       <text>
         <r>
           <rPr>
@@ -510,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T41" authorId="1" shapeId="0" xr:uid="{DC161548-F3D2-4D4D-99D4-5C89AD6919C3}">
+    <comment ref="T41" authorId="0" shapeId="0" xr:uid="{DC161548-F3D2-4D4D-99D4-5C89AD6919C3}">
       <text>
         <r>
           <rPr>
@@ -539,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W41" authorId="1" shapeId="0" xr:uid="{D074E812-A6B4-416D-9DE6-783D8869B601}">
+    <comment ref="W41" authorId="0" shapeId="0" xr:uid="{D074E812-A6B4-416D-9DE6-783D8869B601}">
       <text>
         <r>
           <rPr>
@@ -568,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z41" authorId="1" shapeId="0" xr:uid="{0FFE4715-3DAA-4850-A7D0-DE8CAD919746}">
+    <comment ref="Z41" authorId="0" shapeId="0" xr:uid="{0FFE4715-3DAA-4850-A7D0-DE8CAD919746}">
       <text>
         <r>
           <rPr>
@@ -597,7 +615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC41" authorId="1" shapeId="0" xr:uid="{C29ABEB6-92DA-4F6D-B9AB-C6663B656A94}">
+    <comment ref="AC41" authorId="0" shapeId="0" xr:uid="{C29ABEB6-92DA-4F6D-B9AB-C6663B656A94}">
       <text>
         <r>
           <rPr>
@@ -626,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF41" authorId="1" shapeId="0" xr:uid="{C428DCFB-A70E-4731-886E-7E4A1E259518}">
+    <comment ref="AF41" authorId="0" shapeId="0" xr:uid="{C428DCFB-A70E-4731-886E-7E4A1E259518}">
       <text>
         <r>
           <rPr>
@@ -655,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI41" authorId="1" shapeId="0" xr:uid="{9034DDED-066A-4ADB-8BFE-B61D2C9880F9}">
+    <comment ref="AI41" authorId="0" shapeId="0" xr:uid="{9034DDED-066A-4ADB-8BFE-B61D2C9880F9}">
       <text>
         <r>
           <rPr>
@@ -684,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL41" authorId="1" shapeId="0" xr:uid="{AC97CEF9-5EAE-4BFE-8B87-9CD3F8B0D9EA}">
+    <comment ref="AL41" authorId="0" shapeId="0" xr:uid="{AC97CEF9-5EAE-4BFE-8B87-9CD3F8B0D9EA}">
       <text>
         <r>
           <rPr>
@@ -723,7 +741,7 @@
 https://www.european-agency.org/country-information/denmark/legislation-and-policy</t>
       </text>
     </comment>
-    <comment ref="Q48" authorId="1" shapeId="0" xr:uid="{9396BF93-2C83-4092-9314-A17B072C6A91}">
+    <comment ref="Q48" authorId="0" shapeId="0" xr:uid="{9396BF93-2C83-4092-9314-A17B072C6A91}">
       <text>
         <r>
           <rPr>
@@ -743,7 +761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO50" authorId="1" shapeId="0" xr:uid="{9E51432C-69F1-4C36-8537-68AFDEBDAA33}">
+    <comment ref="AO50" authorId="0" shapeId="0" xr:uid="{9E51432C-69F1-4C36-8537-68AFDEBDAA33}">
       <text>
         <r>
           <rPr>
@@ -757,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR50" authorId="1" shapeId="0" xr:uid="{DF210AE2-E828-4282-AB0D-16BF04AC5477}">
+    <comment ref="AR50" authorId="0" shapeId="0" xr:uid="{DF210AE2-E828-4282-AB0D-16BF04AC5477}">
       <text>
         <r>
           <rPr>
@@ -791,7 +809,7 @@
 These seems directed mostly to students with special needs, and therefore do not seem to change this indicator</t>
       </text>
     </comment>
-    <comment ref="Q62" authorId="1" shapeId="0" xr:uid="{30540F2E-B0FA-4341-8F67-EB3676180C8F}">
+    <comment ref="Q62" authorId="0" shapeId="0" xr:uid="{30540F2E-B0FA-4341-8F67-EB3676180C8F}">
       <text>
         <r>
           <rPr>
@@ -823,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q67" authorId="1" shapeId="0" xr:uid="{A2B326D4-BD0F-4747-9561-5A330A69619E}">
+    <comment ref="Q67" authorId="0" shapeId="0" xr:uid="{A2B326D4-BD0F-4747-9561-5A330A69619E}">
       <text>
         <r>
           <rPr>
@@ -871,7 +889,7 @@
 Put 3 because it mentions "in adapted forms and contexts"</t>
       </text>
     </comment>
-    <comment ref="Q73" authorId="1" shapeId="0" xr:uid="{66D90A24-F024-473A-8089-03FF9413A1F1}">
+    <comment ref="Q73" authorId="0" shapeId="0" xr:uid="{66D90A24-F024-473A-8089-03FF9413A1F1}">
       <text>
         <r>
           <rPr>
@@ -1060,7 +1078,7 @@
 "La escolarización de este alumnado en unidades o centros de educación especial, que podrá extenderse hasta los veintiún años, sólo se llevará a cabo cuando sus necesidades no puedan ser atendidas en el marco de las medidas de atención a la diversidad de los centros ordinarios." </t>
       </text>
     </comment>
-    <comment ref="H86" authorId="1" shapeId="0" xr:uid="{51B07638-0806-46D0-B4B6-80A5D6FF8FF9}">
+    <comment ref="H86" authorId="0" shapeId="0" xr:uid="{51B07638-0806-46D0-B4B6-80A5D6FF8FF9}">
       <text>
         <r>
           <rPr>
@@ -1084,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J86" authorId="1" shapeId="0" xr:uid="{DFFB308B-1630-4170-88C8-993968C79FA0}">
+    <comment ref="J86" authorId="0" shapeId="0" xr:uid="{DFFB308B-1630-4170-88C8-993968C79FA0}">
       <text>
         <r>
           <rPr>
@@ -1108,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K86" authorId="1" shapeId="0" xr:uid="{18B00117-458E-4A8B-9937-82A9AA0724C2}">
+    <comment ref="K86" authorId="0" shapeId="0" xr:uid="{18B00117-458E-4A8B-9937-82A9AA0724C2}">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L86" authorId="1" shapeId="0" xr:uid="{4945145F-19B3-42C6-B881-85518FC18D42}">
+    <comment ref="L86" authorId="0" shapeId="0" xr:uid="{4945145F-19B3-42C6-B881-85518FC18D42}">
       <text>
         <r>
           <rPr>
@@ -1166,7 +1184,7 @@
     Plan only aims for a policy, to be developed </t>
       </text>
     </comment>
-    <comment ref="H89" authorId="1" shapeId="0" xr:uid="{B1FABA04-94F3-4142-8186-0AB0DF444AFD}">
+    <comment ref="H89" authorId="0" shapeId="0" xr:uid="{B1FABA04-94F3-4142-8186-0AB0DF444AFD}">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J89" authorId="1" shapeId="0" xr:uid="{52AD5230-2AFD-463B-9B33-DA1400B22D84}">
+    <comment ref="J89" authorId="0" shapeId="0" xr:uid="{52AD5230-2AFD-463B-9B33-DA1400B22D84}">
       <text>
         <r>
           <rPr>
@@ -1214,7 +1232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K89" authorId="1" shapeId="0" xr:uid="{6A154D0A-91E9-4349-ABA8-7839908A2EA8}">
+    <comment ref="K89" authorId="0" shapeId="0" xr:uid="{6A154D0A-91E9-4349-ABA8-7839908A2EA8}">
       <text>
         <r>
           <rPr>
@@ -1238,7 +1256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L89" authorId="1" shapeId="0" xr:uid="{6102AA9D-76F2-4118-AEE5-F177C94239E4}">
+    <comment ref="L89" authorId="0" shapeId="0" xr:uid="{6102AA9D-76F2-4118-AEE5-F177C94239E4}">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1288,7 @@
     For primary education there is a separeted school for extreme disabilities</t>
       </text>
     </comment>
-    <comment ref="H93" authorId="1" shapeId="0" xr:uid="{57DC1E61-6098-4E47-ADE9-D1CCF1D5FB6C}">
+    <comment ref="H93" authorId="0" shapeId="0" xr:uid="{57DC1E61-6098-4E47-ADE9-D1CCF1D5FB6C}">
       <text>
         <r>
           <rPr>
@@ -1294,7 +1312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J93" authorId="1" shapeId="0" xr:uid="{A2EF69D8-CE9D-4A8C-9878-30B683E97D8E}">
+    <comment ref="J93" authorId="0" shapeId="0" xr:uid="{A2EF69D8-CE9D-4A8C-9878-30B683E97D8E}">
       <text>
         <r>
           <rPr>
@@ -1348,7 +1366,7 @@
     However, important to note that between 2020 and 2023 was in force a decree that segregated students. This was revoked in 2023</t>
       </text>
     </comment>
-    <comment ref="H96" authorId="1" shapeId="0" xr:uid="{6EC7477D-E5CA-48DA-8364-6D531146BCF3}">
+    <comment ref="H96" authorId="0" shapeId="0" xr:uid="{6EC7477D-E5CA-48DA-8364-6D531146BCF3}">
       <text>
         <r>
           <rPr>
@@ -1372,7 +1390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J96" authorId="1" shapeId="0" xr:uid="{3EEFE2DC-9673-4162-8A94-64B3C0826A36}">
+    <comment ref="J96" authorId="0" shapeId="0" xr:uid="{3EEFE2DC-9673-4162-8A94-64B3C0826A36}">
       <text>
         <r>
           <rPr>
@@ -1396,7 +1414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L96" authorId="1" shapeId="0" xr:uid="{94F6A796-F9F7-4037-81AD-508A26BC1B10}">
+    <comment ref="L96" authorId="0" shapeId="0" xr:uid="{94F6A796-F9F7-4037-81AD-508A26BC1B10}">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H97" authorId="1" shapeId="0" xr:uid="{B368EE01-4ADC-4D6F-AA52-C783D7B225F2}">
+    <comment ref="H97" authorId="0" shapeId="0" xr:uid="{B368EE01-4ADC-4D6F-AA52-C783D7B225F2}">
       <text>
         <r>
           <rPr>
@@ -1444,7 +1462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J97" authorId="1" shapeId="0" xr:uid="{EC34259B-A522-43B2-A2B4-0FC90EF1519C}">
+    <comment ref="J97" authorId="0" shapeId="0" xr:uid="{EC34259B-A522-43B2-A2B4-0FC90EF1519C}">
       <text>
         <r>
           <rPr>
@@ -1468,7 +1486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L97" authorId="1" shapeId="0" xr:uid="{68C389D1-8462-43A9-AB28-544628E0C477}">
+    <comment ref="L97" authorId="0" shapeId="0" xr:uid="{68C389D1-8462-43A9-AB28-544628E0C477}">
       <text>
         <r>
           <rPr>
@@ -1512,7 +1530,7 @@
 However, I could not have acess to this law</t>
       </text>
     </comment>
-    <comment ref="H102" authorId="1" shapeId="0" xr:uid="{515C668B-AB05-4189-92C7-711E4D0E5FDE}">
+    <comment ref="H102" authorId="0" shapeId="0" xr:uid="{515C668B-AB05-4189-92C7-711E4D0E5FDE}">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J102" authorId="1" shapeId="0" xr:uid="{85176CD5-55EA-47F3-82E7-823347C24F71}">
+    <comment ref="J102" authorId="0" shapeId="0" xr:uid="{85176CD5-55EA-47F3-82E7-823347C24F71}">
       <text>
         <r>
           <rPr>
@@ -1560,7 +1578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L102" authorId="1" shapeId="0" xr:uid="{00F50057-664C-4777-B988-25B4EECE3925}">
+    <comment ref="L102" authorId="0" shapeId="0" xr:uid="{00F50057-664C-4777-B988-25B4EECE3925}">
       <text>
         <r>
           <rPr>
@@ -1661,7 +1679,7 @@
 'Offer accessible formats to provide special education, seeking as far as possible their incorporation to all educational services, without canceling their ability to access the school service'</t>
       </text>
     </comment>
-    <comment ref="H114" authorId="1" shapeId="0" xr:uid="{1008EC0D-1DBD-4281-B5E1-B7BDB67831B0}">
+    <comment ref="H114" authorId="0" shapeId="0" xr:uid="{1008EC0D-1DBD-4281-B5E1-B7BDB67831B0}">
       <text>
         <r>
           <rPr>
@@ -1685,7 +1703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J114" authorId="1" shapeId="0" xr:uid="{993DB8F8-73F6-4D26-BAE8-AE8B35648D5F}">
+    <comment ref="J114" authorId="0" shapeId="0" xr:uid="{993DB8F8-73F6-4D26-BAE8-AE8B35648D5F}">
       <text>
         <r>
           <rPr>
@@ -1709,7 +1727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L114" authorId="1" shapeId="0" xr:uid="{F97E61A3-7367-4A1A-ABCA-B5DEB0163D47}">
+    <comment ref="L114" authorId="0" shapeId="0" xr:uid="{F97E61A3-7367-4A1A-ABCA-B5DEB0163D47}">
       <text>
         <r>
           <rPr>
@@ -1801,7 +1819,7 @@
 However, it was just a pilot project in one of the islands and no further developments seem to have been done on this direction.</t>
       </text>
     </comment>
-    <comment ref="H122" authorId="1" shapeId="0" xr:uid="{8BEDF8CD-83E5-46E0-BCD4-F14436F4760A}">
+    <comment ref="H122" authorId="0" shapeId="0" xr:uid="{8BEDF8CD-83E5-46E0-BCD4-F14436F4760A}">
       <text>
         <r>
           <rPr>
@@ -1825,7 +1843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J122" authorId="1" shapeId="0" xr:uid="{A0E795B1-F40B-4507-A3D9-4DD66AB3473D}">
+    <comment ref="J122" authorId="0" shapeId="0" xr:uid="{A0E795B1-F40B-4507-A3D9-4DD66AB3473D}">
       <text>
         <r>
           <rPr>
@@ -1849,7 +1867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L122" authorId="1" shapeId="0" xr:uid="{BF9ACEE7-8D1A-4BCE-A7DA-AA74119B521A}">
+    <comment ref="L122" authorId="0" shapeId="0" xr:uid="{BF9ACEE7-8D1A-4BCE-A7DA-AA74119B521A}">
       <text>
         <r>
           <rPr>
@@ -1888,7 +1906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H125" authorId="1" shapeId="0" xr:uid="{6A2C7A4C-4849-43CD-9F81-10B9375B203F}">
+    <comment ref="H125" authorId="0" shapeId="0" xr:uid="{6A2C7A4C-4849-43CD-9F81-10B9375B203F}">
       <text>
         <r>
           <rPr>
@@ -1912,7 +1930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J125" authorId="1" shapeId="0" xr:uid="{807DB061-BB1B-4947-9D4B-15FD0AE672F3}">
+    <comment ref="J125" authorId="0" shapeId="0" xr:uid="{807DB061-BB1B-4947-9D4B-15FD0AE672F3}">
       <text>
         <r>
           <rPr>
@@ -1936,7 +1954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L125" authorId="1" shapeId="0" xr:uid="{913A1040-576A-4492-9FC0-713B4CF533EE}">
+    <comment ref="L125" authorId="0" shapeId="0" xr:uid="{913A1040-576A-4492-9FC0-713B4CF533EE}">
       <text>
         <r>
           <rPr>
@@ -1975,7 +1993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q134" authorId="1" shapeId="0" xr:uid="{9936C5DE-C8D9-432C-8A92-3D2D639D51C5}">
+    <comment ref="Q134" authorId="0" shapeId="0" xr:uid="{9936C5DE-C8D9-432C-8A92-3D2D639D51C5}">
       <text>
         <r>
           <rPr>
@@ -2159,7 +2177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M146" authorId="1" shapeId="0" xr:uid="{2DF3D59B-2624-40C6-9D9E-EEDD915D3413}">
+    <comment ref="M146" authorId="0" shapeId="0" xr:uid="{2DF3D59B-2624-40C6-9D9E-EEDD915D3413}">
       <text>
         <r>
           <rPr>
@@ -2325,7 +2343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H165" authorId="1" shapeId="0" xr:uid="{E853A1CC-FC3E-46E9-B09E-C8E87D621FF4}">
+    <comment ref="H165" authorId="0" shapeId="0" xr:uid="{E853A1CC-FC3E-46E9-B09E-C8E87D621FF4}">
       <text>
         <r>
           <rPr>
@@ -2349,7 +2367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L165" authorId="1" shapeId="0" xr:uid="{20942018-F3BC-4F2C-B8E0-A271282C2154}">
+    <comment ref="L165" authorId="0" shapeId="0" xr:uid="{20942018-F3BC-4F2C-B8E0-A271282C2154}">
       <text>
         <r>
           <rPr>
@@ -2944,7 +2962,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="277">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -3633,138 +3651,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Variable1</t>
-  </si>
-  <si>
-    <t>Variable2</t>
-  </si>
-  <si>
-    <t>Variable3</t>
-  </si>
-  <si>
-    <t>Variable4</t>
-  </si>
-  <si>
-    <t>Variable5</t>
-  </si>
-  <si>
-    <t>Variable6</t>
-  </si>
-  <si>
-    <t>Variable7</t>
-  </si>
-  <si>
-    <t>Variable8</t>
-  </si>
-  <si>
-    <t>Variable9</t>
-  </si>
-  <si>
-    <t>Variable10</t>
-  </si>
-  <si>
-    <t>Variable11</t>
-  </si>
-  <si>
-    <t>Variable12</t>
-  </si>
-  <si>
-    <t>Variable13</t>
-  </si>
-  <si>
-    <t>Variable14</t>
-  </si>
-  <si>
-    <t>Variable15</t>
-  </si>
-  <si>
-    <t>Variable16</t>
-  </si>
-  <si>
-    <t>Variable17</t>
-  </si>
-  <si>
-    <t>Variable18</t>
-  </si>
-  <si>
-    <t>Variable19</t>
-  </si>
-  <si>
-    <t>Variable20</t>
-  </si>
-  <si>
-    <t>Variable21</t>
-  </si>
-  <si>
-    <t>Variable22</t>
-  </si>
-  <si>
-    <t>Variable23</t>
-  </si>
-  <si>
-    <t>Variable24</t>
-  </si>
-  <si>
-    <t>Variable25</t>
-  </si>
-  <si>
-    <t>Variable26</t>
-  </si>
-  <si>
-    <t>Variable27</t>
-  </si>
-  <si>
-    <t>Variable28</t>
-  </si>
-  <si>
-    <t>Variable29</t>
-  </si>
-  <si>
-    <t>Variable30</t>
-  </si>
-  <si>
-    <t>Variable31</t>
-  </si>
-  <si>
-    <t>Variable32</t>
-  </si>
-  <si>
-    <t>Variable33</t>
-  </si>
-  <si>
-    <t>Variable34</t>
-  </si>
-  <si>
-    <t>Variable35</t>
-  </si>
-  <si>
-    <t>Variable36</t>
-  </si>
-  <si>
-    <t>Variable37</t>
-  </si>
-  <si>
-    <t>Variable38</t>
-  </si>
-  <si>
-    <t>Variable39</t>
-  </si>
-  <si>
-    <t>Variable40</t>
-  </si>
-  <si>
-    <t>Variable41</t>
-  </si>
-  <si>
-    <t>Variable42</t>
-  </si>
-  <si>
-    <t>Variable43</t>
-  </si>
-  <si>
-    <t>Variable44</t>
-  </si>
-  <si>
     <t>Region_N</t>
   </si>
   <si>
@@ -3779,12 +3665,141 @@
   <si>
     <t>Inclusion_trend</t>
   </si>
+  <si>
+    <t>1.1. Convention on the Rights of Persons with Disabilities (CRPD) 2020</t>
+  </si>
+  <si>
+    <t>1.1. Convention on the Rights of Persons with Disabilities (CRPD) 2025</t>
+  </si>
+  <si>
+    <t>1.2. CRPD Optional Protocol?  2020</t>
+  </si>
+  <si>
+    <t>1.2. CRPD Optional Protocol?  2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convention on the Elimination of All Forms of Discrimination against Women (CEDAW) </t>
+  </si>
+  <si>
+    <t>Convention against Discrimination in Education (CADE)?2020</t>
+  </si>
+  <si>
+    <t>Convention against Discrimination in Education (CADE)?2025</t>
+  </si>
+  <si>
+    <t>2.1 doe sthe country provide an explicit def of IE 2020 1</t>
+  </si>
+  <si>
+    <t>2.1 doe sthe country provide an explicit def of IE 2020 2</t>
+  </si>
+  <si>
+    <t>2.1 doe sthe country provide an explicit def of IE 2025</t>
+  </si>
+  <si>
+    <t>Disability 2020</t>
+  </si>
+  <si>
+    <t>Disability 2025</t>
+  </si>
+  <si>
+    <t>Disability 20202</t>
+  </si>
+  <si>
+    <t>Gender 2020</t>
+  </si>
+  <si>
+    <t>Gender20202</t>
+  </si>
+  <si>
+    <t>Gender 2025</t>
+  </si>
+  <si>
+    <t>Ethnicity/language 2020</t>
+  </si>
+  <si>
+    <t>Ethnicity/language 2021</t>
+  </si>
+  <si>
+    <t>Ethnicity/language 2022</t>
+  </si>
+  <si>
+    <t>Location 2020 1</t>
+  </si>
+  <si>
+    <t>Location 2020 2</t>
+  </si>
+  <si>
+    <t>Location 2025</t>
+  </si>
+  <si>
+    <t>Poverty 2020 1</t>
+  </si>
+  <si>
+    <t>Poverty 2020 2</t>
+  </si>
+  <si>
+    <t>Poverty 2025 3</t>
+  </si>
+  <si>
+    <t>Migrants/refugees 2020 1</t>
+  </si>
+  <si>
+    <t>Migrants/refugees 2020 2</t>
+  </si>
+  <si>
+    <t>Migrants/refugees 2020 3</t>
+  </si>
+  <si>
+    <t>Gifted 2020 1</t>
+  </si>
+  <si>
+    <t>Gifted 2020 2</t>
+  </si>
+  <si>
+    <t>Gifted 2025</t>
+  </si>
+  <si>
+    <t>IEL legislation for all learners 2020 1</t>
+  </si>
+  <si>
+    <t>IEL legislation for all learners 2020 2</t>
+  </si>
+  <si>
+    <t>IEL legislation for all learners 2025</t>
+  </si>
+  <si>
+    <t>IEpolicyfor all learners 2020 1</t>
+  </si>
+  <si>
+    <t>IEpolicyfor all learners 2020 2</t>
+  </si>
+  <si>
+    <t>IEpolicyfor all learners 2025</t>
+  </si>
+  <si>
+    <t>Law on education for disability 2020 1</t>
+  </si>
+  <si>
+    <t>Law on education for disability 2020 2</t>
+  </si>
+  <si>
+    <t>Law on education for disability 2025</t>
+  </si>
+  <si>
+    <t>Policy on education for disability 2020 1</t>
+  </si>
+  <si>
+    <t>Policy  on education for disability 2020 2</t>
+  </si>
+  <si>
+    <t>Policy  on education for disability 2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3827,14 +3842,22 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3908,7 +3931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3965,12 +3988,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
@@ -3982,7 +4016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4035,17 +4069,26 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5132,15 +5175,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0E82A3-B3F9-4533-9E36-22F7516F4C53}">
   <dimension ref="A1:AY215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
+      <extLst>
+        <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
+          <xlsdti:showDataTypeIcons visible="0"/>
+        </ext>
+      </extLst>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" ht="158" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>226</v>
@@ -5152,150 +5203,150 @@
         <v>228</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG1" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH1" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI1" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ1" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK1" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL1" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM1" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN1" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO1" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP1" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ1" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR1" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS1" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="AT1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU1" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="AV1" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="AW1" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="AX1" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB1" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC1" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD1" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE1" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG1" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="AJ1" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK1" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL1" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="AM1" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN1" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="AO1" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="AP1" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="AQ1" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="AR1" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="AS1" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="AT1" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="AU1" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV1" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW1" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="AX1" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY1" s="24" t="s">
-        <v>272</v>
+      <c r="AY1" s="28" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -5448,7 +5499,7 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -5601,7 +5652,7 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -5754,7 +5805,7 @@
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>98</v>
@@ -5881,7 +5932,7 @@
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>100</v>
@@ -6032,7 +6083,7 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>108</v>
@@ -6187,7 +6238,7 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>114</v>
@@ -6340,7 +6391,7 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>128</v>
@@ -6493,7 +6544,7 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>145</v>
@@ -6620,7 +6671,7 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>155</v>
@@ -6747,7 +6798,7 @@
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>188</v>
@@ -6896,7 +6947,7 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>194</v>
@@ -7025,7 +7076,7 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>203</v>
@@ -7178,7 +7229,7 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>216</v>
@@ -7307,7 +7358,7 @@
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>41</v>
@@ -7434,7 +7485,7 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>47</v>
@@ -7561,7 +7612,7 @@
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>54</v>
@@ -7688,7 +7739,7 @@
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>95</v>
@@ -7815,7 +7866,7 @@
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>99</v>
@@ -7964,7 +8015,7 @@
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>106</v>
@@ -8091,7 +8142,7 @@
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>111</v>
@@ -8218,7 +8269,7 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>112</v>
@@ -8367,7 +8418,7 @@
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>115</v>
@@ -8494,7 +8545,7 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>124</v>
@@ -8621,7 +8672,7 @@
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>127</v>
@@ -8770,7 +8821,7 @@
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>137</v>
@@ -8919,7 +8970,7 @@
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>142</v>
@@ -9046,7 +9097,7 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>162</v>
@@ -9195,7 +9246,7 @@
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>179</v>
@@ -9348,7 +9399,7 @@
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>195</v>
@@ -9497,7 +9548,7 @@
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>196</v>
@@ -9650,7 +9701,7 @@
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>219</v>
@@ -9799,7 +9850,7 @@
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>3</v>
@@ -9944,7 +9995,7 @@
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>21</v>
@@ -10071,7 +10122,7 @@
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>27</v>
@@ -10226,7 +10277,7 @@
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>28</v>
@@ -10375,7 +10426,7 @@
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>29</v>
@@ -10524,7 +10575,7 @@
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>30</v>
@@ -10673,7 +10724,7 @@
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>31</v>
@@ -10822,7 +10873,7 @@
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>37</v>
@@ -10967,7 +11018,7 @@
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>43</v>
@@ -11096,7 +11147,7 @@
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>49</v>
@@ -11223,7 +11274,7 @@
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>61</v>
@@ -11352,7 +11403,7 @@
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>64</v>
@@ -11479,7 +11530,7 @@
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>65</v>
@@ -11608,7 +11659,7 @@
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>67</v>
@@ -11757,7 +11808,7 @@
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>76</v>
@@ -11902,7 +11953,7 @@
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>80</v>
@@ -12029,7 +12080,7 @@
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>81</v>
@@ -12182,7 +12233,7 @@
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>85</v>
@@ -12309,7 +12360,7 @@
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>87</v>
@@ -12436,7 +12487,7 @@
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>96</v>
@@ -12565,7 +12616,7 @@
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>97</v>
@@ -12692,7 +12743,7 @@
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>102</v>
@@ -12819,7 +12870,7 @@
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>104</v>
@@ -12968,7 +13019,7 @@
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>116</v>
@@ -13097,7 +13148,7 @@
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>121</v>
@@ -13224,7 +13275,7 @@
     </row>
     <row r="59" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>122</v>
@@ -13353,7 +13404,7 @@
     </row>
     <row r="60" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>123</v>
@@ -13502,7 +13553,7 @@
     </row>
     <row r="61" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>130</v>
@@ -13629,7 +13680,7 @@
     </row>
     <row r="62" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>136</v>
@@ -13774,7 +13825,7 @@
     </row>
     <row r="63" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>138</v>
@@ -13903,7 +13954,7 @@
     </row>
     <row r="64" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>146</v>
@@ -14056,7 +14107,7 @@
     </row>
     <row r="65" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>152</v>
@@ -14185,7 +14236,7 @@
     </row>
     <row r="66" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>153</v>
@@ -14312,7 +14363,7 @@
     </row>
     <row r="67" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>163</v>
@@ -14457,7 +14508,7 @@
     </row>
     <row r="68" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>164</v>
@@ -14608,7 +14659,7 @@
     </row>
     <row r="69" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>166</v>
@@ -14763,7 +14814,7 @@
     </row>
     <row r="70" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>167</v>
@@ -14892,7 +14943,7 @@
     </row>
     <row r="71" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>176</v>
@@ -15043,7 +15094,7 @@
     </row>
     <row r="72" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>181</v>
@@ -15172,7 +15223,7 @@
     </row>
     <row r="73" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>182</v>
@@ -15317,7 +15368,7 @@
     </row>
     <row r="74" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>187</v>
@@ -15470,7 +15521,7 @@
     </row>
     <row r="75" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>191</v>
@@ -15619,7 +15670,7 @@
     </row>
     <row r="76" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>192</v>
@@ -15768,7 +15819,7 @@
     </row>
     <row r="77" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>207</v>
@@ -15897,7 +15948,7 @@
     </row>
     <row r="78" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>209</v>
@@ -16024,7 +16075,7 @@
     </row>
     <row r="79" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>210</v>
@@ -16151,7 +16202,7 @@
     </row>
     <row r="80" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>211</v>
@@ -16278,7 +16329,7 @@
     </row>
     <row r="81" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>212</v>
@@ -16405,7 +16456,7 @@
     </row>
     <row r="82" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>214</v>
@@ -16532,7 +16583,7 @@
     </row>
     <row r="83" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>223</v>
@@ -16659,7 +16710,7 @@
     </row>
     <row r="84" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>224</v>
@@ -16786,7 +16837,7 @@
     </row>
     <row r="85" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>225</v>
@@ -16939,7 +16990,7 @@
     </row>
     <row r="86" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>11</v>
@@ -17066,7 +17117,7 @@
     </row>
     <row r="87" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>14</v>
@@ -17217,7 +17268,7 @@
     </row>
     <row r="88" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>16</v>
@@ -17370,7 +17421,7 @@
     </row>
     <row r="89" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>18</v>
@@ -17523,7 +17574,7 @@
     </row>
     <row r="90" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>23</v>
@@ -17650,7 +17701,7 @@
     </row>
     <row r="91" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>26</v>
@@ -17799,7 +17850,7 @@
     </row>
     <row r="92" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>32</v>
@@ -17952,7 +18003,7 @@
     </row>
     <row r="93" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>34</v>
@@ -18079,7 +18130,7 @@
     </row>
     <row r="94" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>36</v>
@@ -18230,7 +18281,7 @@
     </row>
     <row r="95" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>39</v>
@@ -18383,7 +18434,7 @@
     </row>
     <row r="96" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>40</v>
@@ -18510,7 +18561,7 @@
     </row>
     <row r="97" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>50</v>
@@ -18637,7 +18688,7 @@
     </row>
     <row r="98" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>53</v>
@@ -18788,7 +18839,7 @@
     </row>
     <row r="99" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>55</v>
@@ -18915,7 +18966,7 @@
     </row>
     <row r="100" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>59</v>
@@ -19068,7 +19119,7 @@
     </row>
     <row r="101" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>62</v>
@@ -19221,7 +19272,7 @@
     </row>
     <row r="102" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>63</v>
@@ -19348,7 +19399,7 @@
     </row>
     <row r="103" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>69</v>
@@ -19475,7 +19526,7 @@
     </row>
     <row r="104" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>70</v>
@@ -19628,7 +19679,7 @@
     </row>
     <row r="105" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>71</v>
@@ -19781,7 +19832,7 @@
     </row>
     <row r="106" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>73</v>
@@ -19934,7 +19985,7 @@
     </row>
     <row r="107" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>88</v>
@@ -20061,7 +20112,7 @@
     </row>
     <row r="108" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>89</v>
@@ -20214,7 +20265,7 @@
     </row>
     <row r="109" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>92</v>
@@ -20365,7 +20416,7 @@
     </row>
     <row r="110" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>93</v>
@@ -20518,7 +20569,7 @@
     </row>
     <row r="111" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>94</v>
@@ -20671,7 +20722,7 @@
     </row>
     <row r="112" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>105</v>
@@ -20796,7 +20847,7 @@
     </row>
     <row r="113" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>134</v>
@@ -20949,7 +21000,7 @@
     </row>
     <row r="114" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>139</v>
@@ -21076,7 +21127,7 @@
     </row>
     <row r="115" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>148</v>
@@ -21203,7 +21254,7 @@
     </row>
     <row r="116" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>158</v>
@@ -21356,7 +21407,7 @@
     </row>
     <row r="117" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>160</v>
@@ -21509,7 +21560,7 @@
     </row>
     <row r="118" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>161</v>
@@ -21662,7 +21713,7 @@
     </row>
     <row r="119" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>169</v>
@@ -21815,7 +21866,7 @@
     </row>
     <row r="120" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>170</v>
@@ -21968,7 +22019,7 @@
     </row>
     <row r="121" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>171</v>
@@ -22121,7 +22172,7 @@
     </row>
     <row r="122" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>180</v>
@@ -22274,7 +22325,7 @@
     </row>
     <row r="123" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>190</v>
@@ -22427,7 +22478,7 @@
     </row>
     <row r="124" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>200</v>
@@ -22580,7 +22631,7 @@
     </row>
     <row r="125" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>204</v>
@@ -22707,7 +22758,7 @@
     </row>
     <row r="126" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>215</v>
@@ -22860,7 +22911,7 @@
     </row>
     <row r="127" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>218</v>
@@ -22987,7 +23038,7 @@
     </row>
     <row r="128" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>6</v>
@@ -23114,7 +23165,7 @@
     </row>
     <row r="129" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>17</v>
@@ -23269,7 +23320,7 @@
     </row>
     <row r="130" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>22</v>
@@ -23422,7 +23473,7 @@
     </row>
     <row r="131" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>24</v>
@@ -23575,7 +23626,7 @@
     </row>
     <row r="132" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>72</v>
@@ -23702,7 +23753,7 @@
     </row>
     <row r="133" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>75</v>
@@ -23829,7 +23880,7 @@
     </row>
     <row r="134" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>84</v>
@@ -23984,7 +24035,7 @@
     </row>
     <row r="135" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>101</v>
@@ -24137,7 +24188,7 @@
     </row>
     <row r="136" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>103</v>
@@ -24264,7 +24315,7 @@
     </row>
     <row r="137" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>107</v>
@@ -24415,7 +24466,7 @@
     </row>
     <row r="138" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>113</v>
@@ -24568,7 +24619,7 @@
     </row>
     <row r="139" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>117</v>
@@ -24719,7 +24770,7 @@
     </row>
     <row r="140" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>120</v>
@@ -24872,7 +24923,7 @@
     </row>
     <row r="141" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>140</v>
@@ -24999,7 +25050,7 @@
     </row>
     <row r="142" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>154</v>
@@ -25152,7 +25203,7 @@
     </row>
     <row r="143" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>157</v>
@@ -25305,7 +25356,7 @@
     </row>
     <row r="144" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>165</v>
@@ -25430,7 +25481,7 @@
     </row>
     <row r="145" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>174</v>
@@ -25557,7 +25608,7 @@
     </row>
     <row r="146" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>189</v>
@@ -25710,7 +25761,7 @@
     </row>
     <row r="147" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>193</v>
@@ -25863,7 +25914,7 @@
     </row>
     <row r="148" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>201</v>
@@ -25990,7 +26041,7 @@
     </row>
     <row r="149" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>202</v>
@@ -26117,7 +26168,7 @@
     </row>
     <row r="150" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>208</v>
@@ -26244,7 +26295,7 @@
     </row>
     <row r="151" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>220</v>
@@ -26371,7 +26422,7 @@
     </row>
     <row r="152" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>19</v>
@@ -26520,7 +26571,7 @@
     </row>
     <row r="153" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>58</v>
@@ -26673,7 +26724,7 @@
     </row>
     <row r="154" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>79</v>
@@ -26822,13 +26873,13 @@
     </row>
     <row r="155" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25" t="s">
+      <c r="C155" s="24"/>
+      <c r="D155" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E155" s="2">
@@ -26975,7 +27026,7 @@
     </row>
     <row r="156" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>131</v>
@@ -27128,7 +27179,7 @@
     </row>
     <row r="157" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>135</v>
@@ -27281,7 +27332,7 @@
     </row>
     <row r="158" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>144</v>
@@ -27434,7 +27485,7 @@
     </row>
     <row r="159" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>147</v>
@@ -27583,7 +27634,7 @@
     </row>
     <row r="160" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>151</v>
@@ -27736,7 +27787,7 @@
     </row>
     <row r="161" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>156</v>
@@ -27863,7 +27914,7 @@
     </row>
     <row r="162" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>159</v>
@@ -28016,7 +28067,7 @@
     </row>
     <row r="163" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>172</v>
@@ -28165,7 +28216,7 @@
     </row>
     <row r="164" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>183</v>
@@ -28314,7 +28365,7 @@
     </row>
     <row r="165" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>198</v>
@@ -28467,7 +28518,7 @@
     </row>
     <row r="166" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>199</v>
@@ -28616,7 +28667,7 @@
     </row>
     <row r="167" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>205</v>
@@ -28743,7 +28794,7 @@
     </row>
     <row r="168" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>217</v>
@@ -28896,7 +28947,7 @@
     </row>
     <row r="169" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>8</v>
@@ -29049,7 +29100,7 @@
     </row>
     <row r="170" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>33</v>
@@ -29202,7 +29253,7 @@
     </row>
     <row r="171" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>38</v>
@@ -29355,7 +29406,7 @@
     </row>
     <row r="172" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>44</v>
@@ -29508,7 +29559,7 @@
     </row>
     <row r="173" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>45</v>
@@ -29661,7 +29712,7 @@
     </row>
     <row r="174" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>46</v>
@@ -29814,7 +29865,7 @@
     </row>
     <row r="175" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>48</v>
@@ -29967,7 +30018,7 @@
     </row>
     <row r="176" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>51</v>
@@ -30094,7 +30145,7 @@
     </row>
     <row r="177" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>52</v>
@@ -30221,7 +30272,7 @@
     </row>
     <row r="178" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>56</v>
@@ -30374,7 +30425,7 @@
     </row>
     <row r="179" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>57</v>
@@ -30527,7 +30578,7 @@
     </row>
     <row r="180" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>60</v>
@@ -30680,7 +30731,7 @@
     </row>
     <row r="181" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>66</v>
@@ -30823,7 +30874,7 @@
     </row>
     <row r="182" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>68</v>
@@ -30950,7 +31001,7 @@
     </row>
     <row r="183" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>74</v>
@@ -31103,7 +31154,7 @@
     </row>
     <row r="184" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>77</v>
@@ -31256,7 +31307,7 @@
     </row>
     <row r="185" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>78</v>
@@ -31401,7 +31452,7 @@
     </row>
     <row r="186" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>82</v>
@@ -31554,7 +31605,7 @@
     </row>
     <row r="187" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>83</v>
@@ -31681,7 +31732,7 @@
     </row>
     <row r="188" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>86</v>
@@ -31830,7 +31881,7 @@
     </row>
     <row r="189" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>90</v>
@@ -31983,7 +32034,7 @@
     </row>
     <row r="190" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>91</v>
@@ -32136,7 +32187,7 @@
     </row>
     <row r="191" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>109</v>
@@ -32263,7 +32314,7 @@
     </row>
     <row r="192" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>118</v>
@@ -32416,7 +32467,7 @@
     </row>
     <row r="193" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>119</v>
@@ -32543,7 +32594,7 @@
     </row>
     <row r="194" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>125</v>
@@ -32696,7 +32747,7 @@
     </row>
     <row r="195" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>126</v>
@@ -32845,7 +32896,7 @@
     </row>
     <row r="196" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>129</v>
@@ -32998,7 +33049,7 @@
     </row>
     <row r="197" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>132</v>
@@ -33151,7 +33202,7 @@
     </row>
     <row r="198" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>133</v>
@@ -33304,7 +33355,7 @@
     </row>
     <row r="199" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>141</v>
@@ -33457,7 +33508,7 @@
     </row>
     <row r="200" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>143</v>
@@ -33606,7 +33657,7 @@
     </row>
     <row r="201" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>149</v>
@@ -33759,7 +33810,7 @@
     </row>
     <row r="202" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>150</v>
@@ -33886,7 +33937,7 @@
     </row>
     <row r="203" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>168</v>
@@ -34035,7 +34086,7 @@
     </row>
     <row r="204" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>173</v>
@@ -34188,7 +34239,7 @@
     </row>
     <row r="205" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>175</v>
@@ -34341,7 +34392,7 @@
     </row>
     <row r="206" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>177</v>
@@ -34490,7 +34541,7 @@
     </row>
     <row r="207" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>178</v>
@@ -34643,7 +34694,7 @@
     </row>
     <row r="208" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>184</v>
@@ -34770,7 +34821,7 @@
     </row>
     <row r="209" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>185</v>
@@ -34919,7 +34970,7 @@
     </row>
     <row r="210" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>186</v>
@@ -35068,7 +35119,7 @@
     </row>
     <row r="211" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>197</v>
@@ -35195,7 +35246,7 @@
     </row>
     <row r="212" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>206</v>
@@ -35344,7 +35395,7 @@
     </row>
     <row r="213" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>213</v>
@@ -35471,7 +35522,7 @@
     </row>
     <row r="214" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>221</v>
@@ -35620,7 +35671,7 @@
     </row>
     <row r="215" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>222</v>
@@ -35771,10 +35822,12 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AY215">
     <sortCondition ref="D2:D215"/>
   </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R88" r:id="rId1" display="1" xr:uid="{009F79A4-C8A9-481F-A767-F454E68B5D6B}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/Inclusion 2020-2025.xlsx
+++ b/data/Inclusion 2020-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7a332a5fbc005db/PEER project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{9BEC8082-7A46-48BB-9067-30C4BABA5A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC77B0AD-4AAF-4539-9337-1C543E9A888F}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{9BEC8082-7A46-48BB-9067-30C4BABA5A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F4DB807-D747-432C-95C8-D2C8772BC58D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="125" xr2:uid="{6991985F-A565-499A-8075-9137AABFC5E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="125" xr2:uid="{6991985F-A565-499A-8075-9137AABFC5E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2962,7 +2962,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="279">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -3794,6 +3794,12 @@
   <si>
     <t>Policy  on education for disability 2025</t>
   </si>
+  <si>
+    <t>SnapshotURL</t>
+  </si>
+  <si>
+    <t>https://education-profiles.org/central-and-southern-asia/afghanistan/~inclusion</t>
+  </si>
 </sst>
 </file>
 
@@ -4087,7 +4093,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5173,10 +5179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0E82A3-B3F9-4533-9E36-22F7516F4C53}">
-  <dimension ref="A1:AY215"/>
+  <dimension ref="A1:AZ215"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AL198" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2:AZ215"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -5189,7 +5195,7 @@
     <col min="3" max="3" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="158" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="158" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>232</v>
       </c>
@@ -5343,8 +5349,11 @@
       <c r="AY1" s="28" t="s">
         <v>276</v>
       </c>
+      <c r="AZ1" s="28" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>233</v>
       </c>
@@ -5496,8 +5505,11 @@
       <c r="AY2" s="5">
         <v>3</v>
       </c>
+      <c r="AZ2" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>233</v>
       </c>
@@ -5649,8 +5661,11 @@
       <c r="AY3" s="5">
         <v>6</v>
       </c>
+      <c r="AZ3" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>233</v>
       </c>
@@ -5802,8 +5817,11 @@
       <c r="AY4" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="AZ4" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>233</v>
       </c>
@@ -5929,8 +5947,11 @@
       </c>
       <c r="AX5" s="4"/>
       <c r="AY5" s="5"/>
+      <c r="AZ5" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>233</v>
       </c>
@@ -6080,8 +6101,11 @@
       <c r="AY6" s="5">
         <v>3</v>
       </c>
+      <c r="AZ6" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -6235,8 +6259,11 @@
       <c r="AY7" s="5">
         <v>2</v>
       </c>
+      <c r="AZ7" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -6388,8 +6415,11 @@
       <c r="AY8" s="5">
         <v>6</v>
       </c>
+      <c r="AZ8" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -6541,8 +6571,11 @@
       <c r="AY9" s="5">
         <v>6</v>
       </c>
+      <c r="AZ9" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>233</v>
       </c>
@@ -6668,8 +6701,11 @@
       </c>
       <c r="AX10" s="8"/>
       <c r="AY10" s="9"/>
+      <c r="AZ10" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>233</v>
       </c>
@@ -6795,8 +6831,11 @@
       </c>
       <c r="AX11" s="8"/>
       <c r="AY11" s="9"/>
+      <c r="AZ11" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>233</v>
       </c>
@@ -6944,8 +6983,11 @@
       </c>
       <c r="AX12" s="4"/>
       <c r="AY12" s="5"/>
+      <c r="AZ12" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>233</v>
       </c>
@@ -7073,8 +7115,11 @@
       </c>
       <c r="AX13" s="4"/>
       <c r="AY13" s="5"/>
+      <c r="AZ13" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -7226,8 +7271,11 @@
       <c r="AY14" s="9">
         <v>3</v>
       </c>
+      <c r="AZ14" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>233</v>
       </c>
@@ -7355,8 +7403,11 @@
       </c>
       <c r="AX15" s="4"/>
       <c r="AY15" s="5"/>
+      <c r="AZ15" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>233</v>
       </c>
@@ -7482,8 +7533,11 @@
       </c>
       <c r="AX16" s="4"/>
       <c r="AY16" s="5"/>
+      <c r="AZ16" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>233</v>
       </c>
@@ -7609,8 +7663,11 @@
       </c>
       <c r="AX17" s="8"/>
       <c r="AY17" s="9"/>
+      <c r="AZ17" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>233</v>
       </c>
@@ -7736,8 +7793,11 @@
       </c>
       <c r="AX18" s="4"/>
       <c r="AY18" s="5"/>
+      <c r="AZ18" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -7863,8 +7923,11 @@
       </c>
       <c r="AX19" s="8"/>
       <c r="AY19" s="9"/>
+      <c r="AZ19" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -8012,8 +8075,11 @@
       </c>
       <c r="AX20" s="8"/>
       <c r="AY20" s="9"/>
+      <c r="AZ20" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>233</v>
       </c>
@@ -8139,8 +8205,11 @@
       </c>
       <c r="AX21" s="4"/>
       <c r="AY21" s="5"/>
+      <c r="AZ21" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>233</v>
       </c>
@@ -8266,8 +8335,11 @@
       </c>
       <c r="AX22" s="8"/>
       <c r="AY22" s="9"/>
+      <c r="AZ22" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>233</v>
       </c>
@@ -8415,8 +8487,11 @@
       </c>
       <c r="AX23" s="4"/>
       <c r="AY23" s="5"/>
+      <c r="AZ23" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>233</v>
       </c>
@@ -8542,8 +8617,11 @@
       </c>
       <c r="AX24" s="8"/>
       <c r="AY24" s="9"/>
+      <c r="AZ24" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>233</v>
       </c>
@@ -8669,8 +8747,11 @@
       </c>
       <c r="AX25" s="4"/>
       <c r="AY25" s="5"/>
+      <c r="AZ25" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>233</v>
       </c>
@@ -8818,8 +8899,11 @@
       </c>
       <c r="AX26" s="8"/>
       <c r="AY26" s="9"/>
+      <c r="AZ26" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -8967,8 +9051,11 @@
       </c>
       <c r="AX27" s="8"/>
       <c r="AY27" s="9"/>
+      <c r="AZ27" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>233</v>
       </c>
@@ -9094,8 +9181,11 @@
       </c>
       <c r="AX28" s="4"/>
       <c r="AY28" s="5"/>
+      <c r="AZ28" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>233</v>
       </c>
@@ -9243,8 +9333,11 @@
       </c>
       <c r="AX29" s="4"/>
       <c r="AY29" s="5"/>
+      <c r="AZ29" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -9396,8 +9489,11 @@
       <c r="AY30" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="AZ30" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>233</v>
       </c>
@@ -9545,8 +9641,11 @@
       </c>
       <c r="AX31" s="8"/>
       <c r="AY31" s="9"/>
+      <c r="AZ31" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>233</v>
       </c>
@@ -9698,8 +9797,11 @@
       <c r="AY32" s="5">
         <v>3</v>
       </c>
+      <c r="AZ32" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>233</v>
       </c>
@@ -9847,8 +9949,11 @@
       </c>
       <c r="AX33" s="8"/>
       <c r="AY33" s="9"/>
+      <c r="AZ33" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>233</v>
       </c>
@@ -9992,8 +10097,11 @@
       </c>
       <c r="AX34" s="8"/>
       <c r="AY34" s="9"/>
+      <c r="AZ34" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -10119,8 +10227,11 @@
       </c>
       <c r="AX35" s="4"/>
       <c r="AY35" s="5"/>
+      <c r="AZ35" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>233</v>
       </c>
@@ -10274,8 +10385,11 @@
       <c r="AY36" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="AZ36" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -10423,8 +10537,11 @@
       </c>
       <c r="AX37" s="8"/>
       <c r="AY37" s="9"/>
+      <c r="AZ37" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>233</v>
       </c>
@@ -10572,8 +10689,11 @@
       </c>
       <c r="AX38" s="4"/>
       <c r="AY38" s="5"/>
+      <c r="AZ38" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>233</v>
       </c>
@@ -10721,8 +10841,11 @@
       </c>
       <c r="AX39" s="8"/>
       <c r="AY39" s="9"/>
+      <c r="AZ39" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -10870,8 +10993,11 @@
       </c>
       <c r="AX40" s="4"/>
       <c r="AY40" s="5"/>
+      <c r="AZ40" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>233</v>
       </c>
@@ -11015,8 +11141,11 @@
       </c>
       <c r="AX41" s="4"/>
       <c r="AY41" s="5"/>
+      <c r="AZ41" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -11144,8 +11273,11 @@
       </c>
       <c r="AX42" s="8"/>
       <c r="AY42" s="9"/>
+      <c r="AZ42" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -11271,8 +11403,11 @@
       </c>
       <c r="AX43" s="8"/>
       <c r="AY43" s="9"/>
+      <c r="AZ43" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>233</v>
       </c>
@@ -11400,8 +11535,11 @@
       </c>
       <c r="AX44" s="8"/>
       <c r="AY44" s="9"/>
+      <c r="AZ44" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>233</v>
       </c>
@@ -11527,8 +11665,11 @@
       </c>
       <c r="AX45" s="4"/>
       <c r="AY45" s="5"/>
+      <c r="AZ45" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>233</v>
       </c>
@@ -11656,8 +11797,11 @@
       </c>
       <c r="AX46" s="8"/>
       <c r="AY46" s="9"/>
+      <c r="AZ46" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>233</v>
       </c>
@@ -11805,8 +11949,11 @@
       </c>
       <c r="AX47" s="8"/>
       <c r="AY47" s="9"/>
+      <c r="AZ47" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>233</v>
       </c>
@@ -11950,8 +12097,11 @@
       </c>
       <c r="AX48" s="4"/>
       <c r="AY48" s="5"/>
+      <c r="AZ48" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>233</v>
       </c>
@@ -12077,8 +12227,11 @@
       </c>
       <c r="AX49" s="4"/>
       <c r="AY49" s="5"/>
+      <c r="AZ49" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>233</v>
       </c>
@@ -12230,8 +12383,11 @@
       <c r="AY50" s="9">
         <v>6</v>
       </c>
+      <c r="AZ50" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>233</v>
       </c>
@@ -12357,8 +12513,11 @@
       </c>
       <c r="AX51" s="8"/>
       <c r="AY51" s="9"/>
+      <c r="AZ51" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>233</v>
       </c>
@@ -12484,8 +12643,11 @@
       </c>
       <c r="AX52" s="8"/>
       <c r="AY52" s="9"/>
+      <c r="AZ52" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -12613,8 +12775,11 @@
       </c>
       <c r="AX53" s="4"/>
       <c r="AY53" s="5"/>
+      <c r="AZ53" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>233</v>
       </c>
@@ -12740,8 +12905,11 @@
       </c>
       <c r="AX54" s="8"/>
       <c r="AY54" s="9"/>
+      <c r="AZ54" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>233</v>
       </c>
@@ -12867,8 +13035,11 @@
       </c>
       <c r="AX55" s="4"/>
       <c r="AY55" s="5"/>
+      <c r="AZ55" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>233</v>
       </c>
@@ -13016,8 +13187,11 @@
       </c>
       <c r="AX56" s="4"/>
       <c r="AY56" s="5"/>
+      <c r="AZ56" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -13145,8 +13319,11 @@
       </c>
       <c r="AX57" s="4"/>
       <c r="AY57" s="5"/>
+      <c r="AZ57" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>233</v>
       </c>
@@ -13272,8 +13449,11 @@
       </c>
       <c r="AX58" s="8"/>
       <c r="AY58" s="9"/>
+      <c r="AZ58" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>233</v>
       </c>
@@ -13401,8 +13581,11 @@
       </c>
       <c r="AX59" s="4"/>
       <c r="AY59" s="5"/>
+      <c r="AZ59" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>233</v>
       </c>
@@ -13550,8 +13733,11 @@
       </c>
       <c r="AX60" s="8"/>
       <c r="AY60" s="9"/>
+      <c r="AZ60" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>233</v>
       </c>
@@ -13677,8 +13863,11 @@
       </c>
       <c r="AX61" s="4"/>
       <c r="AY61" s="5"/>
+      <c r="AZ61" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>233</v>
       </c>
@@ -13822,8 +14011,11 @@
       </c>
       <c r="AX62" s="4"/>
       <c r="AY62" s="5"/>
+      <c r="AZ62" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>233</v>
       </c>
@@ -13951,8 +14143,11 @@
       </c>
       <c r="AX63" s="4"/>
       <c r="AY63" s="5"/>
+      <c r="AZ63" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>233</v>
       </c>
@@ -14104,8 +14299,11 @@
       <c r="AY64" s="5">
         <v>3</v>
       </c>
+      <c r="AZ64" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>233</v>
       </c>
@@ -14233,8 +14431,11 @@
       </c>
       <c r="AX65" s="4"/>
       <c r="AY65" s="5"/>
+      <c r="AZ65" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -14360,8 +14561,11 @@
       </c>
       <c r="AX66" s="8"/>
       <c r="AY66" s="9"/>
+      <c r="AZ66" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>233</v>
       </c>
@@ -14505,8 +14709,11 @@
       </c>
       <c r="AX67" s="8"/>
       <c r="AY67" s="9"/>
+      <c r="AZ67" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>233</v>
       </c>
@@ -14656,8 +14863,11 @@
       <c r="AY68" s="5">
         <v>6</v>
       </c>
+      <c r="AZ68" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>233</v>
       </c>
@@ -14811,8 +15021,11 @@
       <c r="AY69" s="5">
         <v>3</v>
       </c>
+      <c r="AZ69" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -14940,8 +15153,11 @@
       </c>
       <c r="AX70" s="8"/>
       <c r="AY70" s="9"/>
+      <c r="AZ70" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>233</v>
       </c>
@@ -15091,8 +15307,11 @@
       </c>
       <c r="AX71" s="4"/>
       <c r="AY71" s="5"/>
+      <c r="AZ71" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>233</v>
       </c>
@@ -15220,8 +15439,11 @@
       </c>
       <c r="AX72" s="8"/>
       <c r="AY72" s="9"/>
+      <c r="AZ72" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -15365,8 +15587,11 @@
       </c>
       <c r="AX73" s="4"/>
       <c r="AY73" s="5"/>
+      <c r="AZ73" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>233</v>
       </c>
@@ -15518,8 +15743,11 @@
       <c r="AY74" s="9">
         <v>3</v>
       </c>
+      <c r="AZ74" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>233</v>
       </c>
@@ -15667,8 +15895,11 @@
       </c>
       <c r="AX75" s="8"/>
       <c r="AY75" s="9"/>
+      <c r="AZ75" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>233</v>
       </c>
@@ -15816,8 +16047,11 @@
       </c>
       <c r="AX76" s="4"/>
       <c r="AY76" s="5"/>
+      <c r="AZ76" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>233</v>
       </c>
@@ -15945,8 +16179,11 @@
       </c>
       <c r="AX77" s="8"/>
       <c r="AY77" s="9"/>
+      <c r="AZ77" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>233</v>
       </c>
@@ -16072,8 +16309,11 @@
       </c>
       <c r="AX78" s="8"/>
       <c r="AY78" s="9"/>
+      <c r="AZ78" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>233</v>
       </c>
@@ -16199,8 +16439,11 @@
       </c>
       <c r="AX79" s="4"/>
       <c r="AY79" s="5"/>
+      <c r="AZ79" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>233</v>
       </c>
@@ -16326,8 +16569,11 @@
       </c>
       <c r="AX80" s="8"/>
       <c r="AY80" s="9"/>
+      <c r="AZ80" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>233</v>
       </c>
@@ -16453,8 +16699,11 @@
       </c>
       <c r="AX81" s="4"/>
       <c r="AY81" s="5"/>
+      <c r="AZ81" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>233</v>
       </c>
@@ -16580,8 +16829,11 @@
       </c>
       <c r="AX82" s="4"/>
       <c r="AY82" s="5"/>
+      <c r="AZ82" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>233</v>
       </c>
@@ -16707,8 +16959,11 @@
       </c>
       <c r="AX83" s="8"/>
       <c r="AY83" s="9"/>
+      <c r="AZ83" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>233</v>
       </c>
@@ -16834,8 +17089,11 @@
       </c>
       <c r="AX84" s="4"/>
       <c r="AY84" s="5"/>
+      <c r="AZ84" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>233</v>
       </c>
@@ -16987,8 +17245,11 @@
       <c r="AY85" s="9">
         <v>6</v>
       </c>
+      <c r="AZ85" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>233</v>
       </c>
@@ -17114,8 +17375,11 @@
       </c>
       <c r="AX86" s="4"/>
       <c r="AY86" s="5"/>
+      <c r="AZ86" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>233</v>
       </c>
@@ -17265,8 +17529,11 @@
       <c r="AY87" s="9">
         <v>2</v>
       </c>
+      <c r="AZ87" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>233</v>
       </c>
@@ -17418,8 +17685,11 @@
       <c r="AY88" s="5">
         <v>3</v>
       </c>
+      <c r="AZ88" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>233</v>
       </c>
@@ -17571,8 +17841,11 @@
       <c r="AY89" s="5">
         <v>4</v>
       </c>
+      <c r="AZ89" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>233</v>
       </c>
@@ -17698,8 +17971,11 @@
       </c>
       <c r="AX90" s="4"/>
       <c r="AY90" s="5"/>
+      <c r="AZ90" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>233</v>
       </c>
@@ -17847,8 +18123,11 @@
       <c r="AY91" s="9">
         <v>2</v>
       </c>
+      <c r="AZ91" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>233</v>
       </c>
@@ -18000,8 +18279,11 @@
       <c r="AY92" s="9">
         <v>5</v>
       </c>
+      <c r="AZ92" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="93" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>233</v>
       </c>
@@ -18127,8 +18409,11 @@
       </c>
       <c r="AX93" s="8"/>
       <c r="AY93" s="9"/>
+      <c r="AZ93" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>233</v>
       </c>
@@ -18278,8 +18563,11 @@
       <c r="AY94" s="9">
         <v>3</v>
       </c>
+      <c r="AZ94" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>233</v>
       </c>
@@ -18431,8 +18719,11 @@
       <c r="AY95" s="5">
         <v>3</v>
       </c>
+      <c r="AZ95" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>233</v>
       </c>
@@ -18558,8 +18849,11 @@
       </c>
       <c r="AX96" s="8"/>
       <c r="AY96" s="9"/>
+      <c r="AZ96" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>233</v>
       </c>
@@ -18685,8 +18979,11 @@
       </c>
       <c r="AX97" s="4"/>
       <c r="AY97" s="5"/>
+      <c r="AZ97" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="98" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>233</v>
       </c>
@@ -18836,8 +19133,11 @@
       <c r="AY98" s="9">
         <v>3</v>
       </c>
+      <c r="AZ98" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="99" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>233</v>
       </c>
@@ -18963,8 +19263,11 @@
       </c>
       <c r="AX99" s="8"/>
       <c r="AY99" s="9"/>
+      <c r="AZ99" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="100" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>233</v>
       </c>
@@ -19116,8 +19419,11 @@
       <c r="AY100" s="9">
         <v>6</v>
       </c>
+      <c r="AZ100" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>233</v>
       </c>
@@ -19269,8 +19575,11 @@
       <c r="AY101" s="5">
         <v>3</v>
       </c>
+      <c r="AZ101" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>233</v>
       </c>
@@ -19396,8 +19705,11 @@
       </c>
       <c r="AX102" s="8"/>
       <c r="AY102" s="9"/>
+      <c r="AZ102" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -19523,8 +19835,11 @@
       </c>
       <c r="AX103" s="8"/>
       <c r="AY103" s="9"/>
+      <c r="AZ103" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>233</v>
       </c>
@@ -19676,8 +19991,11 @@
       <c r="AY104" s="5">
         <v>3</v>
       </c>
+      <c r="AZ104" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>233</v>
       </c>
@@ -19829,8 +20147,11 @@
       <c r="AY105" s="9">
         <v>6</v>
       </c>
+      <c r="AZ105" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>233</v>
       </c>
@@ -19982,8 +20303,11 @@
       <c r="AY106" s="9">
         <v>3</v>
       </c>
+      <c r="AZ106" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>233</v>
       </c>
@@ -20109,8 +20433,11 @@
       </c>
       <c r="AX107" s="4"/>
       <c r="AY107" s="5"/>
+      <c r="AZ107" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>233</v>
       </c>
@@ -20262,8 +20589,11 @@
       <c r="AY108" s="9">
         <v>3</v>
       </c>
+      <c r="AZ108" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>233</v>
       </c>
@@ -20413,8 +20743,11 @@
       <c r="AY109" s="5">
         <v>3</v>
       </c>
+      <c r="AZ109" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="110" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>233</v>
       </c>
@@ -20566,8 +20899,11 @@
       <c r="AY110" s="9">
         <v>2</v>
       </c>
+      <c r="AZ110" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="111" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>233</v>
       </c>
@@ -20719,8 +21055,11 @@
       <c r="AY111" s="5">
         <v>3</v>
       </c>
+      <c r="AZ111" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="112" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>233</v>
       </c>
@@ -20844,8 +21183,11 @@
       </c>
       <c r="AX112" s="8"/>
       <c r="AY112" s="9"/>
+      <c r="AZ112" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="113" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -20997,8 +21339,11 @@
       <c r="AY113" s="5">
         <v>3</v>
       </c>
+      <c r="AZ113" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="114" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>233</v>
       </c>
@@ -21124,8 +21469,11 @@
       </c>
       <c r="AX114" s="8"/>
       <c r="AY114" s="9"/>
+      <c r="AZ114" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="115" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>233</v>
       </c>
@@ -21251,8 +21599,11 @@
       </c>
       <c r="AX115" s="4"/>
       <c r="AY115" s="5"/>
+      <c r="AZ115" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="116" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>233</v>
       </c>
@@ -21404,8 +21755,11 @@
       <c r="AY116" s="5">
         <v>3</v>
       </c>
+      <c r="AZ116" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="117" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -21557,8 +21911,11 @@
       <c r="AY117" s="5">
         <v>6</v>
       </c>
+      <c r="AZ117" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="118" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -21710,8 +22067,11 @@
       <c r="AY118" s="9">
         <v>6</v>
       </c>
+      <c r="AZ118" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="119" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>233</v>
       </c>
@@ -21863,8 +22223,11 @@
       <c r="AY119" s="9">
         <v>2</v>
       </c>
+      <c r="AZ119" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="120" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>233</v>
       </c>
@@ -22016,8 +22379,11 @@
       <c r="AY120" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="AZ120" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="121" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -22169,8 +22535,11 @@
       <c r="AY121" s="9">
         <v>2</v>
       </c>
+      <c r="AZ121" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="122" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>233</v>
       </c>
@@ -22322,8 +22691,11 @@
       <c r="AY122" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="AZ122" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="123" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>233</v>
       </c>
@@ -22475,8 +22847,11 @@
       <c r="AY123" s="5">
         <v>3</v>
       </c>
+      <c r="AZ123" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="124" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>233</v>
       </c>
@@ -22628,8 +23003,11 @@
       <c r="AY124" s="5">
         <v>2</v>
       </c>
+      <c r="AZ124" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="125" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>233</v>
       </c>
@@ -22755,8 +23133,11 @@
       </c>
       <c r="AX125" s="4"/>
       <c r="AY125" s="5"/>
+      <c r="AZ125" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="126" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>233</v>
       </c>
@@ -22908,8 +23289,11 @@
       <c r="AY126" s="9">
         <v>6</v>
       </c>
+      <c r="AZ126" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="127" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>233</v>
       </c>
@@ -23035,8 +23419,11 @@
       </c>
       <c r="AX127" s="4"/>
       <c r="AY127" s="5"/>
+      <c r="AZ127" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="128" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>233</v>
       </c>
@@ -23162,8 +23549,11 @@
       </c>
       <c r="AX128" s="4"/>
       <c r="AY128" s="5"/>
+      <c r="AZ128" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="129" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>233</v>
       </c>
@@ -23317,8 +23707,11 @@
       <c r="AY129" s="9">
         <v>6</v>
       </c>
+      <c r="AZ129" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="130" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>233</v>
       </c>
@@ -23470,8 +23863,11 @@
       <c r="AY130" s="9">
         <v>3</v>
       </c>
+      <c r="AZ130" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="131" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>233</v>
       </c>
@@ -23623,8 +24019,11 @@
       <c r="AY131" s="9">
         <v>5</v>
       </c>
+      <c r="AZ131" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="132" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>233</v>
       </c>
@@ -23750,8 +24149,11 @@
       </c>
       <c r="AX132" s="4"/>
       <c r="AY132" s="5"/>
+      <c r="AZ132" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="133" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>233</v>
       </c>
@@ -23877,8 +24279,11 @@
       </c>
       <c r="AX133" s="8"/>
       <c r="AY133" s="9"/>
+      <c r="AZ133" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="134" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>233</v>
       </c>
@@ -24032,8 +24437,11 @@
       <c r="AY134" s="5">
         <v>6</v>
       </c>
+      <c r="AZ134" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="135" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>233</v>
       </c>
@@ -24185,8 +24593,11 @@
       <c r="AY135" s="9">
         <v>5</v>
       </c>
+      <c r="AZ135" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="136" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>233</v>
       </c>
@@ -24312,8 +24723,11 @@
       </c>
       <c r="AX136" s="8"/>
       <c r="AY136" s="9"/>
+      <c r="AZ136" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="137" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>233</v>
       </c>
@@ -24463,8 +24877,11 @@
       <c r="AY137" s="9">
         <v>6</v>
       </c>
+      <c r="AZ137" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="138" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>233</v>
       </c>
@@ -24616,8 +25033,11 @@
       <c r="AY138" s="9">
         <v>3</v>
       </c>
+      <c r="AZ138" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="139" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>233</v>
       </c>
@@ -24767,8 +25187,11 @@
       <c r="AY139" s="9">
         <v>5</v>
       </c>
+      <c r="AZ139" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="140" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>233</v>
       </c>
@@ -24920,8 +25343,11 @@
       <c r="AY140" s="5">
         <v>5</v>
       </c>
+      <c r="AZ140" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="141" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>233</v>
       </c>
@@ -25047,8 +25473,11 @@
       </c>
       <c r="AX141" s="4"/>
       <c r="AY141" s="5"/>
+      <c r="AZ141" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="142" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>233</v>
       </c>
@@ -25200,8 +25629,11 @@
       <c r="AY142" s="5">
         <v>5</v>
       </c>
+      <c r="AZ142" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="143" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>233</v>
       </c>
@@ -25353,8 +25785,11 @@
       <c r="AY143" s="9">
         <v>3</v>
       </c>
+      <c r="AZ143" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="144" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>233</v>
       </c>
@@ -25478,8 +25913,11 @@
       </c>
       <c r="AX144" s="8"/>
       <c r="AY144" s="9"/>
+      <c r="AZ144" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="145" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>233</v>
       </c>
@@ -25605,8 +26043,11 @@
       </c>
       <c r="AX145" s="4"/>
       <c r="AY145" s="5"/>
+      <c r="AZ145" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="146" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>233</v>
       </c>
@@ -25758,8 +26199,11 @@
       <c r="AY146" s="9">
         <v>5</v>
       </c>
+      <c r="AZ146" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="147" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>233</v>
       </c>
@@ -25911,8 +26355,11 @@
       <c r="AY147" s="9">
         <v>3</v>
       </c>
+      <c r="AZ147" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>233</v>
       </c>
@@ -26038,8 +26485,11 @@
       </c>
       <c r="AX148" s="8"/>
       <c r="AY148" s="9"/>
+      <c r="AZ148" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="149" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>233</v>
       </c>
@@ -26165,8 +26615,11 @@
       </c>
       <c r="AX149" s="4"/>
       <c r="AY149" s="5"/>
+      <c r="AZ149" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="150" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>233</v>
       </c>
@@ -26292,8 +26745,11 @@
       </c>
       <c r="AX150" s="4"/>
       <c r="AY150" s="5"/>
+      <c r="AZ150" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>233</v>
       </c>
@@ -26419,8 +26875,11 @@
       </c>
       <c r="AX151" s="4"/>
       <c r="AY151" s="5"/>
+      <c r="AZ151" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>233</v>
       </c>
@@ -26568,8 +27027,11 @@
       </c>
       <c r="AX152" s="8"/>
       <c r="AY152" s="9"/>
+      <c r="AZ152" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="153" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>233</v>
       </c>
@@ -26721,8 +27183,11 @@
       <c r="AY153" s="5">
         <v>6</v>
       </c>
+      <c r="AZ153" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="154" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>233</v>
       </c>
@@ -26870,8 +27335,11 @@
       </c>
       <c r="AX154" s="8"/>
       <c r="AY154" s="9"/>
+      <c r="AZ154" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="155" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>233</v>
       </c>
@@ -27023,8 +27491,11 @@
       <c r="AY155" s="5">
         <v>6</v>
       </c>
+      <c r="AZ155" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="156" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>233</v>
       </c>
@@ -27176,8 +27647,11 @@
       <c r="AY156" s="9">
         <v>6</v>
       </c>
+      <c r="AZ156" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="157" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>233</v>
       </c>
@@ -27329,8 +27803,11 @@
       <c r="AY157" s="9">
         <v>6</v>
       </c>
+      <c r="AZ157" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="158" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>233</v>
       </c>
@@ -27482,8 +27959,11 @@
       <c r="AY158" s="5">
         <v>6</v>
       </c>
+      <c r="AZ158" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="159" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>233</v>
       </c>
@@ -27631,8 +28111,11 @@
       </c>
       <c r="AX159" s="8"/>
       <c r="AY159" s="9"/>
+      <c r="AZ159" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="160" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>233</v>
       </c>
@@ -27784,8 +28267,11 @@
       <c r="AY160" s="9">
         <v>2</v>
       </c>
+      <c r="AZ160" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="161" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>233</v>
       </c>
@@ -27911,8 +28397,11 @@
       </c>
       <c r="AX161" s="4"/>
       <c r="AY161" s="5"/>
+      <c r="AZ161" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="162" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>233</v>
       </c>
@@ -28064,8 +28553,11 @@
       <c r="AY162" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="AZ162" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="163" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>233</v>
       </c>
@@ -28213,8 +28705,11 @@
       </c>
       <c r="AX163" s="4"/>
       <c r="AY163" s="5"/>
+      <c r="AZ163" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="164" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>233</v>
       </c>
@@ -28362,8 +28857,11 @@
       </c>
       <c r="AX164" s="8"/>
       <c r="AY164" s="9"/>
+      <c r="AZ164" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="165" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>233</v>
       </c>
@@ -28515,8 +29013,11 @@
       <c r="AY165" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="AZ165" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="166" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>233</v>
       </c>
@@ -28664,8 +29165,11 @@
       </c>
       <c r="AX166" s="8"/>
       <c r="AY166" s="9"/>
+      <c r="AZ166" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="167" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>233</v>
       </c>
@@ -28791,8 +29295,11 @@
       </c>
       <c r="AX167" s="8"/>
       <c r="AY167" s="9"/>
+      <c r="AZ167" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="168" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>233</v>
       </c>
@@ -28944,8 +29451,11 @@
       <c r="AY168" s="9">
         <v>6</v>
       </c>
+      <c r="AZ168" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="169" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>233</v>
       </c>
@@ -29097,8 +29607,11 @@
       <c r="AY169" s="9">
         <v>6</v>
       </c>
+      <c r="AZ169" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="170" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>233</v>
       </c>
@@ -29250,8 +29763,11 @@
       <c r="AY170" s="5">
         <v>5</v>
       </c>
+      <c r="AZ170" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="171" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>233</v>
       </c>
@@ -29403,8 +29919,11 @@
       <c r="AY171" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="AZ171" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="172" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>233</v>
       </c>
@@ -29556,8 +30075,11 @@
       <c r="AY172" s="5">
         <v>3</v>
       </c>
+      <c r="AZ172" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="173" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>233</v>
       </c>
@@ -29709,8 +30231,11 @@
       <c r="AY173" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="AZ173" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="174" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>233</v>
       </c>
@@ -29862,8 +30387,11 @@
       <c r="AY174" s="5">
         <v>6</v>
       </c>
+      <c r="AZ174" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="175" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>233</v>
       </c>
@@ -30015,8 +30543,11 @@
       <c r="AY175" s="5">
         <v>3</v>
       </c>
+      <c r="AZ175" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="176" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>233</v>
       </c>
@@ -30142,8 +30673,11 @@
       </c>
       <c r="AX176" s="8"/>
       <c r="AY176" s="9"/>
+      <c r="AZ176" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="177" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>233</v>
       </c>
@@ -30269,8 +30803,11 @@
       </c>
       <c r="AX177" s="4"/>
       <c r="AY177" s="5"/>
+      <c r="AZ177" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="178" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>233</v>
       </c>
@@ -30422,8 +30959,11 @@
       <c r="AY178" s="5">
         <v>4</v>
       </c>
+      <c r="AZ178" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="179" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>233</v>
       </c>
@@ -30575,8 +31115,11 @@
       <c r="AY179" s="9">
         <v>2</v>
       </c>
+      <c r="AZ179" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="180" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>233</v>
       </c>
@@ -30728,8 +31271,11 @@
       <c r="AY180" s="5">
         <v>3</v>
       </c>
+      <c r="AZ180" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="181" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>233</v>
       </c>
@@ -30871,8 +31417,11 @@
       </c>
       <c r="AX181" s="4"/>
       <c r="AY181" s="5"/>
+      <c r="AZ181" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="182" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>233</v>
       </c>
@@ -30998,8 +31547,11 @@
       </c>
       <c r="AX182" s="4"/>
       <c r="AY182" s="5"/>
+      <c r="AZ182" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="183" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>233</v>
       </c>
@@ -31151,8 +31703,11 @@
       <c r="AY183" s="5">
         <v>3</v>
       </c>
+      <c r="AZ183" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="184" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>233</v>
       </c>
@@ -31304,8 +31859,11 @@
       <c r="AY184" s="9">
         <v>3</v>
       </c>
+      <c r="AZ184" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="185" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>233</v>
       </c>
@@ -31449,8 +32007,11 @@
       </c>
       <c r="AX185" s="4"/>
       <c r="AY185" s="5"/>
+      <c r="AZ185" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="186" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>233</v>
       </c>
@@ -31602,8 +32163,11 @@
       <c r="AY186" s="5">
         <v>2</v>
       </c>
+      <c r="AZ186" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="187" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>233</v>
       </c>
@@ -31729,8 +32293,11 @@
       </c>
       <c r="AX187" s="8"/>
       <c r="AY187" s="9"/>
+      <c r="AZ187" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="188" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>233</v>
       </c>
@@ -31878,8 +32445,11 @@
       </c>
       <c r="AX188" s="4"/>
       <c r="AY188" s="5"/>
+      <c r="AZ188" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="189" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>233</v>
       </c>
@@ -32031,8 +32601,11 @@
       <c r="AY189" s="5">
         <v>3</v>
       </c>
+      <c r="AZ189" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="190" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>233</v>
       </c>
@@ -32184,8 +32757,11 @@
       <c r="AY190" s="9">
         <v>3</v>
       </c>
+      <c r="AZ190" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="191" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>233</v>
       </c>
@@ -32311,8 +32887,11 @@
       </c>
       <c r="AX191" s="8"/>
       <c r="AY191" s="9"/>
+      <c r="AZ191" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="192" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>233</v>
       </c>
@@ -32464,8 +33043,11 @@
       <c r="AY192" s="5">
         <v>2</v>
       </c>
+      <c r="AZ192" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="193" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>233</v>
       </c>
@@ -32591,8 +33173,11 @@
       </c>
       <c r="AX193" s="8"/>
       <c r="AY193" s="9"/>
+      <c r="AZ193" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="194" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>233</v>
       </c>
@@ -32744,8 +33329,11 @@
       <c r="AY194" s="19" t="s">
         <v>13</v>
       </c>
+      <c r="AZ194" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="195" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>233</v>
       </c>
@@ -32893,8 +33481,11 @@
       </c>
       <c r="AX195" s="4"/>
       <c r="AY195" s="5"/>
+      <c r="AZ195" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="196" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>233</v>
       </c>
@@ -33046,8 +33637,11 @@
       <c r="AY196" s="19">
         <v>3</v>
       </c>
+      <c r="AZ196" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="197" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>233</v>
       </c>
@@ -33199,8 +33793,11 @@
       <c r="AY197" s="5">
         <v>6</v>
       </c>
+      <c r="AZ197" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="198" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>233</v>
       </c>
@@ -33352,8 +33949,11 @@
       <c r="AY198" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="AZ198" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="199" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>233</v>
       </c>
@@ -33505,8 +34105,11 @@
       <c r="AY199" s="9">
         <v>3</v>
       </c>
+      <c r="AZ199" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="200" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>233</v>
       </c>
@@ -33654,8 +34257,11 @@
       </c>
       <c r="AX200" s="8"/>
       <c r="AY200" s="9"/>
+      <c r="AZ200" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="201" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>233</v>
       </c>
@@ -33807,8 +34413,11 @@
       <c r="AY201" s="9">
         <v>2</v>
       </c>
+      <c r="AZ201" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="202" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>233</v>
       </c>
@@ -33934,8 +34543,11 @@
       </c>
       <c r="AX202" s="4"/>
       <c r="AY202" s="5"/>
+      <c r="AZ202" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="203" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>233</v>
       </c>
@@ -34083,8 +34695,11 @@
       </c>
       <c r="AX203" s="4"/>
       <c r="AY203" s="5"/>
+      <c r="AZ203" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="204" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>233</v>
       </c>
@@ -34236,8 +34851,11 @@
       <c r="AY204" s="9">
         <v>6</v>
       </c>
+      <c r="AZ204" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="205" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>233</v>
       </c>
@@ -34389,8 +35007,11 @@
       <c r="AY205" s="9">
         <v>3</v>
       </c>
+      <c r="AZ205" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="206" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>233</v>
       </c>
@@ -34538,8 +35159,11 @@
       </c>
       <c r="AX206" s="8"/>
       <c r="AY206" s="9"/>
+      <c r="AZ206" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="207" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>233</v>
       </c>
@@ -34691,8 +35315,11 @@
       <c r="AY207" s="5">
         <v>3</v>
       </c>
+      <c r="AZ207" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="208" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>233</v>
       </c>
@@ -34818,8 +35445,11 @@
       </c>
       <c r="AX208" s="4"/>
       <c r="AY208" s="5"/>
+      <c r="AZ208" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="209" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>233</v>
       </c>
@@ -34967,8 +35597,11 @@
       </c>
       <c r="AX209" s="8"/>
       <c r="AY209" s="9"/>
+      <c r="AZ209" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="210" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -35116,8 +35749,11 @@
       </c>
       <c r="AX210" s="4"/>
       <c r="AY210" s="5"/>
+      <c r="AZ210" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="211" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>233</v>
       </c>
@@ -35243,8 +35879,11 @@
       </c>
       <c r="AX211" s="8"/>
       <c r="AY211" s="9"/>
+      <c r="AZ211" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="212" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>233</v>
       </c>
@@ -35392,8 +36031,11 @@
       </c>
       <c r="AX212" s="4"/>
       <c r="AY212" s="5"/>
+      <c r="AZ212" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="213" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>233</v>
       </c>
@@ -35519,8 +36161,11 @@
       </c>
       <c r="AX213" s="8"/>
       <c r="AY213" s="9"/>
+      <c r="AZ213" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="214" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>233</v>
       </c>
@@ -35668,8 +36313,11 @@
       </c>
       <c r="AX214" s="8"/>
       <c r="AY214" s="9"/>
+      <c r="AZ214" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="215" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>233</v>
       </c>
@@ -35817,6 +36465,9 @@
       </c>
       <c r="AX215" s="4"/>
       <c r="AY215" s="5"/>
+      <c r="AZ215" t="s">
+        <v>278</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AY215">
